--- a/src/main/resources/validate/post/post_valid.xlsx
+++ b/src/main/resources/validate/post/post_valid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiseungmin/Desktop/project/mom/src/main/resources/validate/post/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED68564-8DE8-6E44-A4E7-8866D36C7BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFA8CF7-EDB6-EC4B-AA89-EC1E7A704F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20240" activeTab="3" xr2:uid="{DECE7B6D-615A-074B-BBAD-556715FCBC55}"/>
   </bookViews>
@@ -863,7 +863,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
